--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3445.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3445.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.211379783372857</v>
+        <v>1.288577556610107</v>
       </c>
       <c r="B1">
-        <v>2.224735154064669</v>
+        <v>2.334793567657471</v>
       </c>
       <c r="C1">
-        <v>2.920325350461941</v>
+        <v>6.292636871337891</v>
       </c>
       <c r="D1">
-        <v>3.331656514898877</v>
+        <v>1.575372099876404</v>
       </c>
       <c r="E1">
-        <v>3.699934504142251</v>
+        <v>1.331328630447388</v>
       </c>
     </row>
   </sheetData>
